--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -124,12 +124,12 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>safety</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>share</t>
@@ -1521,25 +1521,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6866952789699571</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L23">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="M23">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1547,25 +1547,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6777777777777778</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M24">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1706,22 +1706,22 @@
         <v>0.6</v>
       </c>
       <c r="L30">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1729,13 +1729,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="10:17">
